--- a/tbt1.0接口文档.xlsx
+++ b/tbt1.0接口文档.xlsx
@@ -287,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -331,6 +331,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -338,28 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +377,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -414,6 +400,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,38 +473,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -513,25 +513,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,25 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,121 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,17 +788,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,15 +813,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,36 +832,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -885,6 +855,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -893,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,137 +905,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,23 +1153,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1524,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -1606,7 +1594,7 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -1623,7 +1611,7 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="40"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1624,7 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="40"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
@@ -1654,19 +1642,19 @@
       </c>
     </row>
     <row r="7" s="38" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:4">
+    <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -1679,8 +1667,11 @@
       <c r="D8" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:4">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="23"/>
       <c r="B9" s="15" t="s">
         <v>20</v>
@@ -1691,8 +1682,11 @@
       <c r="D9" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:4">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="23"/>
       <c r="B10" s="27" t="s">
         <v>22</v>
@@ -1703,8 +1697,11 @@
       <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:4">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="21"/>
       <c r="B11" s="28" t="s">
         <v>25</v>
@@ -1715,8 +1712,11 @@
       <c r="D11" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:4">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
@@ -1728,6 +1728,9 @@
       </c>
       <c r="D12" s="28" t="s">
         <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:4">
@@ -1859,7 +1862,7 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="3:4">
-      <c r="C25" s="45"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="28"/>
     </row>
     <row r="26" ht="30" customHeight="1"/>

--- a/tbt1.0接口文档.xlsx
+++ b/tbt1.0接口文档.xlsx
@@ -337,7 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -346,7 +345,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +383,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,44 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -428,6 +429,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -451,24 +459,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,31 +513,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,25 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,115 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,50 +790,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -885,6 +841,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -893,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,133 +905,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:4">
+    <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="22" t="s">
@@ -1742,8 +1742,11 @@
       <c r="D13" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:4">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="22" t="s">
@@ -1752,8 +1755,11 @@
       <c r="D14" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:4">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:5">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="22" t="s">
@@ -1762,8 +1768,11 @@
       <c r="D15" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:4">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:5">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="22" t="s">
@@ -1772,8 +1781,11 @@
       <c r="D16" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:4">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:5">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22" t="s">
@@ -1782,8 +1794,11 @@
       <c r="D17" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:4">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:5">
       <c r="A18" s="21"/>
       <c r="B18" s="23"/>
       <c r="C18" s="22" t="s">
@@ -1792,8 +1807,11 @@
       <c r="D18" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:4">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:5">
       <c r="A19" s="20" t="s">
         <v>39</v>
       </c>
@@ -1806,8 +1824,11 @@
       <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:4">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:5">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>42</v>
@@ -1816,8 +1837,11 @@
       <c r="D20" s="28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:4">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:5">
       <c r="A21" s="23"/>
       <c r="B21" s="15" t="s">
         <v>43</v>
@@ -1826,8 +1850,11 @@
       <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:4">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:5">
       <c r="A22" s="23"/>
       <c r="B22" s="15" t="s">
         <v>45</v>
@@ -1838,8 +1865,11 @@
       <c r="D22" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:4">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:5">
       <c r="A23" s="23"/>
       <c r="B23" s="21" t="s">
         <v>48</v>
@@ -1850,8 +1880,11 @@
       <c r="D23" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:4">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:5">
       <c r="A24" s="23"/>
       <c r="B24" s="21" t="s">
         <v>50</v>
@@ -1859,6 +1892,9 @@
       <c r="C24" s="34"/>
       <c r="D24" s="28" t="s">
         <v>47</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="3:4">
@@ -1900,7 +1936,7 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/tbt1.0接口文档.xlsx
+++ b/tbt1.0接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tbt1.0.ui" sheetId="3" r:id="rId1"/>
@@ -288,9 +288,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -345,7 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,24 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +378,37 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,29 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +513,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,6 +645,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,151 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,21 +798,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -842,6 +827,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -860,8 +860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,8 +880,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,133 +905,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,7 +1512,7 @@
   <sheetPr/>
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1936,8 +1936,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="30" customHeight="1"/>
@@ -2015,6 +2015,9 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
       <c r="J3" s="28" t="s">
         <v>58</v>
       </c>
@@ -2038,6 +2041,9 @@
         <f>IF(LEN(F4),1,0)</f>
         <v>0</v>
       </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="28" t="s">
         <v>58</v>
       </c>
@@ -2055,6 +2061,9 @@
       <c r="F5" s="19"/>
       <c r="G5" s="2">
         <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>58</v>
